--- a/file.xlsx
+++ b/file.xlsx
@@ -3978,7 +3978,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>63.000€</t>
+          <t>90.000€</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>4º piano senza ascensore</t>
+          <t>senza ascensore</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>90.000€</t>
+          <t>63.000€</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>senza ascensore</t>
+          <t>4º piano senza ascensore</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -4263,17 +4263,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Trilocale a Centro Storico, Livorno</t>
+          <t>Bilocale a Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>77.000€</t>
+          <t>110.000€</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>3 locali</t>
+          <t>2 locali</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>4º piano senza ascensore</t>
+          <t>5º piano con ascensore</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
@@ -4292,17 +4292,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Bilocale a Centro Storico, Livorno</t>
+          <t>Trilocale a Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>110.000€</t>
+          <t>77.000€</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2 locali</t>
+          <t>3 locali</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>5º piano con ascensore</t>
+          <t>4º piano senza ascensore</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
@@ -4350,17 +4350,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Trilocale a Centro Storico, Livorno</t>
+          <t>Bilocale a Cisternone - Cavour, Livorno</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>75.000€</t>
+          <t>85.000€</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>3 locali</t>
+          <t>2 locali</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>senza ascensore</t>
+          <t>2º piano senza ascensore</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
@@ -4379,17 +4379,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Bilocale a Cisternone - Cavour, Livorno</t>
+          <t>Trilocale a Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>85.000€</t>
+          <t>75.000€</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2 locali</t>
+          <t>3 locali</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4399,7 +4399,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2º piano senza ascensore</t>
+          <t>senza ascensore</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4263,17 +4263,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Bilocale a Centro Storico, Livorno</t>
+          <t>Trilocale a Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>110.000€</t>
+          <t>77.000€</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2 locali</t>
+          <t>3 locali</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>5º piano con ascensore</t>
+          <t>4º piano senza ascensore</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
@@ -4292,17 +4292,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Trilocale a Centro Storico, Livorno</t>
+          <t>Bilocale a Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>77.000€</t>
+          <t>110.000€</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>3 locali</t>
+          <t>2 locali</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>4º piano senza ascensore</t>
+          <t>5º piano con ascensore</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G156"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,9 @@
       <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -464,30 +467,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/95768878/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>€ 125.000</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
@@ -501,30 +509,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/99588888/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>€ 125.000</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
@@ -538,30 +551,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/98094944/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>€ 65.000</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -575,30 +593,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/103005154/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>€ 63.000</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -612,30 +635,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/98383792/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>€ 70.000</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -649,30 +677,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/103564304/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>€ 69.000</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -686,30 +719,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/103378768/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>€ 120.000</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -723,30 +761,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/99588344/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>€ 128.000</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -760,30 +803,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/101657327/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>€ 93.000</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -797,30 +845,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/94155368/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>€ 110.000</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -834,30 +887,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/99536246/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>€ 125.000</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>7</t>
         </is>
@@ -871,30 +929,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/95841912/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>€ 90.000</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -908,30 +971,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/98487906/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>€ 110.000</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -945,30 +1013,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/99953662/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>€ 95.000</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>58</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -982,30 +1055,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/91328064/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>€ 118.000</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1019,30 +1097,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/96079412/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>€ 90.000</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1056,30 +1139,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/100427240/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>€ 105.000</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1093,30 +1181,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/99398220/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>€ 138.000</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1130,30 +1223,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/99468900/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>€ 95.000</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1167,30 +1265,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/99712760/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>€ 105.000</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1204,30 +1307,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/103706468/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>€ 120.000</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -1241,30 +1349,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/100086958/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>€ 105.000</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>67</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1278,30 +1391,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/99884816/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>€ 105.000</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>67</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1315,30 +1433,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/97827100/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>€ 85.000</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1352,30 +1475,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/101938130/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>€ 130.000</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1389,30 +1517,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/103458318/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>€ 155.000</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -1426,30 +1559,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/97936610/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>€ 200.000</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1463,30 +1601,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/103735754/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>€ 250.000</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1500,30 +1643,35 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/102579864/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>€ 259.000</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1537,30 +1685,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/104147931/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>€ 259.000</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>110</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1569,109 +1722,124 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Quadrilocale buono stato, secondo piano, Via Grande - Piazza della Repubblica, Livorno</t>
+          <t>Appartamento ottimo stato, terzo piano, Cavour - San Carlo, Livorno</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>€ 260.000</t>
+          <t>https://www.immobiliare.it/annunci/99098112/</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>€ 210.000</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Appartamento ottimo stato, terzo piano, Cavour - San Carlo, Livorno</t>
+          <t>Appartamento buono stato, secondo piano, Cavour - San Carlo, Livorno</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>€ 210.000</t>
+          <t>https://www.immobiliare.it/annunci/99535440/</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>€ 350.000</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>5+</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>150</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Appartamento buono stato, secondo piano, Cavour - San Carlo, Livorno</t>
+          <t>Appartamento ottimo stato, secondo piano, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>€ 350.000</t>
+          <t>https://www.immobiliare.it/annunci/94191876/</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>€ 330.000</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>5+</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>160</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -1680,35 +1848,40 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Appartamento ottimo stato, secondo piano, Via Grande - Piazza della Repubblica, Livorno</t>
+          <t>Appartamento buono stato, secondo piano, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>€ 330.000</t>
+          <t>https://www.immobiliare.it/annunci/101962938/</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>€ 350.000</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>5+</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>165</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -1717,35 +1890,40 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Appartamento buono stato, secondo piano, Via Grande - Piazza della Repubblica, Livorno</t>
+          <t>Appartamento Scali D'azeglio, 4, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/94925944/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>€ 350.000</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>5+</t>
-        </is>
-      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>170</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -1754,222 +1932,252 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Appartamento Scali D'azeglio, 4, Via Grande - Piazza della Repubblica, Livorno</t>
+          <t>Appartamento ottimo stato, primo piano, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>€ 350.000</t>
+          <t>https://www.immobiliare.it/annunci/104374411/</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>€ 230.000</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>170</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Appartamento ottimo stato, primo piano, Via Grande - Piazza della Repubblica, Livorno</t>
+          <t>Appartamento buono stato, secondo piano, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>€ 230.000</t>
+          <t>https://www.immobiliare.it/annunci/101642139/</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>€ 350.000</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>170</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Appartamento buono stato, secondo piano, Via Grande - Piazza della Repubblica, Livorno</t>
+          <t>Appartamento Scali d'Azeglio, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>€ 350.000</t>
+          <t>https://www.immobiliare.it/annunci/103441854/</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>€ 395.000</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>217</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Appartamento Scali d'Azeglio, Via Grande - Piazza della Repubblica, Livorno</t>
+          <t>Quadrilocale via Dell'indipendenza, 1, Cavour - San Carlo, Livorno</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>€ 395.000</t>
+          <t>https://www.immobiliare.it/annunci/94680134/</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>€ 400.000</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>230</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Quadrilocale via Dell'indipendenza, 1, Cavour - San Carlo, Livorno</t>
+          <t>Appartamento largo Fratelli Rosselli, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>€ 400.000</t>
+          <t>https://www.immobiliare.it/annunci/103286190/</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>€ 450.000</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>280</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Appartamento largo Fratelli Rosselli, Via Grande - Piazza della Repubblica, Livorno</t>
+          <t>Appartamento Scali d'Azeglio, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>€ 450.000</t>
+          <t>https://www.immobiliare.it/annunci/96892944/</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>€ 217.000</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>5+</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>290</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1981,104 +2189,119 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>€ 217.000</t>
+          <t>https://www.immobiliare.it/annunci/103183666/</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>€ 600.000</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>5+</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>290</t>
-        </is>
-      </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>350</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Appartamento Scali d'Azeglio, Via Grande - Piazza della Repubblica, Livorno</t>
+          <t>Monolocale piazza Camillo Benso di Cavour, Cavour - San Carlo, Livorno</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>€ 600.000</t>
+          <t>https://www.immobiliare.it/annunci/98630370/</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>5+</t>
+          <t>€ 65.000</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Monolocale piazza Camillo Benso di Cavour, Cavour - San Carlo, Livorno</t>
+          <t>Monolocale buono stato, quarto piano, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/102121676/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>€ 65.000</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -2087,35 +2310,40 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Monolocale buono stato, quarto piano, Cisternone, Livorno</t>
+          <t>Bilocale ottimo stato, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>€ 65.000</t>
+          <t>https://www.immobiliare.it/annunci/103715090/</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>€ 70.000</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -2124,35 +2352,40 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Bilocale ottimo stato, Via Grande - Piazza della Repubblica, Livorno</t>
+          <t>Monolocale via Ernesto Rossi, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>€ 70.000</t>
+          <t>https://www.immobiliare.it/annunci/102127328/</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>€ 60.000</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -2161,327 +2394,372 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Monolocale via Ernesto Rossi, Cisternone, Livorno</t>
+          <t>Bilocale via dei Mulini, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>€ 60.000</t>
+          <t>https://www.immobiliare.it/annunci/103919517/</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>€ 74.000</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Bilocale via dei Mulini, Cisternone, Livorno</t>
+          <t>Bilocale via Magenta, Attias - Marconi, Livorno</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>€ 74.000</t>
+          <t>https://www.immobiliare.it/annunci/98844064/</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>€ 115.000</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Bilocale via Magenta, Attias - Marconi, Livorno</t>
+          <t>Bilocale via Maggi, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>€ 115.000</t>
+          <t>https://www.immobiliare.it/annunci/102436770/</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>€ 104.000</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>57</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Bilocale via Maggi, Cisternone, Livorno</t>
+          <t>Bilocale via Fiorenza, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>€ 104.000</t>
+          <t>https://www.immobiliare.it/annunci/102349888/</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>€ 110.000</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Bilocale via Fiorenza, Cisternone, Livorno</t>
+          <t>Bilocale ottimo stato, piano rialzato, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>€ 110.000</t>
+          <t>https://www.immobiliare.it/annunci/103212710/</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>€ 104.000</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Bilocale ottimo stato, piano rialzato, Cisternone, Livorno</t>
+          <t>Bilocale ottimo stato, piano terra, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/102068850/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>€ 104.000</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Bilocale ottimo stato, piano terra, Cisternone, Livorno</t>
+          <t>Trilocale buono stato, secondo piano, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>€ 104.000</t>
+          <t>https://www.immobiliare.it/annunci/101984074/</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>€ 75.000</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>T</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Trilocale buono stato, secondo piano, Cisternone, Livorno</t>
+          <t>Trilocale via Maggi, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>€ 75.000</t>
+          <t>https://www.immobiliare.it/annunci/104577005/</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>€ 105.000</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Trilocale via Maggi, Cisternone, Livorno</t>
+          <t>Trilocale via Fiorenza, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/104676327/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>€ 105.000</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -2490,35 +2768,40 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Trilocale via Fiorenza, Cisternone, Livorno</t>
+          <t>Trilocale via Fagiuoli 2, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/102455786/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>€ 105.000</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>63</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -2527,72 +2810,82 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Trilocale via Fagiuoli 2, Cisternone, Livorno</t>
+          <t>Trilocale via Maggi, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>€ 105.000</t>
+          <t>https://www.immobiliare.it/annunci/102777498/</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>€ 90.000</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>65</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Trilocale via Maggi, Cisternone, Livorno</t>
+          <t>Trilocale ottimo stato, terzo piano, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>€ 90.000</t>
+          <t>https://www.immobiliare.it/annunci/91938336/</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>€ 129.000</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -2601,183 +2894,208 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Trilocale ottimo stato, terzo piano, Cisternone, Livorno</t>
+          <t>Quadrilocale via Maggi 88C, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>€ 129.000</t>
+          <t>https://www.immobiliare.it/annunci/101512983/</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>€ 55.000</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>65</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Quadrilocale via Maggi 88C, Cisternone, Livorno</t>
+          <t>Trilocale Scali degli Olandesi 56, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>€ 55.000</t>
+          <t>https://www.immobiliare.it/annunci/95286216/</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>€ 118.000</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>66</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Trilocale Scali degli Olandesi 56, Via Grande - Piazza della Repubblica, Livorno</t>
+          <t>Bilocale via Fagiuoli, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>€ 118.000</t>
+          <t>https://www.immobiliare.it/annunci/104101885/</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>€ 105.000</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>70</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Bilocale via Fagiuoli, Cisternone, Livorno</t>
+          <t>Trilocale buono stato, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>€ 105.000</t>
+          <t>https://www.immobiliare.it/annunci/103715174/</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>€ 90.000</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t>70</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Trilocale buono stato, Cisternone, Livorno</t>
+          <t>Trilocale da ristrutturare, terzo piano, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/95194334/</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>€ 90.000</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -2786,35 +3104,40 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Trilocale da ristrutturare, terzo piano, Cisternone, Livorno</t>
+          <t>Quadrilocale via della Rondinella 14, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>€ 90.000</t>
+          <t>https://www.immobiliare.it/annunci/102205288/</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>€ 145.000</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>80</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -2823,37 +3146,42 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Quadrilocale via della Rondinella 14, Cisternone, Livorno</t>
+          <t>Trilocale via Maggi, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>€ 145.000</t>
+          <t>https://www.immobiliare.it/annunci/104754215/</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>€ 130.000</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>80</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>
@@ -2865,30 +3193,35 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/102192930/</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>€ 145.000</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -2902,30 +3235,35 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/92057456/</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>€ 109.000</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>5+</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -2934,216 +3272,246 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Quadrilocale ottimo stato, quarto piano, Via Grande - Piazza della Repubblica, Livorno</t>
+          <t>Quadrilocale via della maddalena , 5, Cavour - San Carlo, Livorno</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>€ 215.000</t>
+          <t>https://www.immobiliare.it/annunci/94926028/</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>€ 135.000</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Quadrilocale via della maddalena , 5, Cavour - San Carlo, Livorno</t>
+          <t>Quadrilocale via degli Apostoli, Cavour - San Carlo, Livorno</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>€ 135.000</t>
+          <t>https://www.immobiliare.it/annunci/100530508/</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>€ 230.000</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Quadrilocale via degli Apostoli, Cavour - San Carlo, Livorno</t>
+          <t>Quadrilocale via della Vecchia Casina, Cavour - San Carlo, Livorno</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>€ 230.000</t>
+          <t>https://www.immobiliare.it/annunci/103609528/</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>€ 115.000</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Quadrilocale via della Vecchia Casina, Cavour - San Carlo, Livorno</t>
+          <t>Appartamento via degli Apostoli, Cavour - San Carlo, Livorno</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>€ 115.000</t>
+          <t>https://www.immobiliare.it/annunci/102011422/</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>€ 145.000</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>104</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Appartamento via degli Apostoli, Cavour - San Carlo, Livorno</t>
+          <t>Trilocale via degli Apostoli, Cavour - San Carlo, Livorno</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>€ 145.000</t>
+          <t>https://www.immobiliare.it/annunci/101473923/</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>€ 215.000</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>110</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr"/>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Trilocale via degli Apostoli, Cavour - San Carlo, Livorno</t>
+          <t>Quadrilocale via Indipendenza, Cavour - San Carlo, Livorno</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/100456088/</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
           <t>€ 215.000</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="D74" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
           <t>110</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -3152,183 +3520,208 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Quadrilocale via Indipendenza, Cavour - San Carlo, Livorno</t>
+          <t>Appartamento da ristrutturare, terzo piano, Porta a Mare - Mazzini, Livorno</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>€ 215.000</t>
+          <t>https://www.immobiliare.it/annunci/102482092/</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>€ 148.000</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
           <t>110</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Appartamento da ristrutturare, terzo piano, Porta a Mare - Mazzini, Livorno</t>
+          <t>Quadrilocale ottimo stato, Cavour - San Carlo, Livorno</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>€ 148.000</t>
+          <t>https://www.immobiliare.it/annunci/100688821/</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>€ 215.000</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
           <t>110</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Quadrilocale ottimo stato, Cavour - San Carlo, Livorno</t>
+          <t>Appartamento piazza Giuseppe Mazzini, Porta a Mare - Mazzini, Livorno</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>€ 215.000</t>
+          <t>https://www.immobiliare.it/annunci/97313264/</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>€ 150.000</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>112</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Appartamento piazza Giuseppe Mazzini, Porta a Mare - Mazzini, Livorno</t>
+          <t>Appartamento ottimo stato, Cavour - San Carlo, Livorno</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>€ 150.000</t>
+          <t>https://www.immobiliare.it/annunci/103162092/</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>€ 199.000</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>120</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Appartamento ottimo stato, Cavour - San Carlo, Livorno</t>
+          <t>Appartamento da ristrutturare, primo piano, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>€ 199.000</t>
+          <t>https://www.immobiliare.it/annunci/102578632/</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>€ 160.000</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>5+</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>130</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3337,72 +3730,82 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Appartamento da ristrutturare, primo piano, Via Grande - Piazza della Repubblica, Livorno</t>
+          <t>Quadrilocale piazza Giuseppe Mazzini 13, Porta a Mare - Mazzini, Livorno</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>€ 160.000</t>
+          <t>https://www.immobiliare.it/annunci/99628044/</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>5+</t>
+          <t>€ 185.000</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>142</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Quadrilocale piazza Giuseppe Mazzini 13, Porta a Mare - Mazzini, Livorno</t>
+          <t>Appartamento piazza Daniele Manin 15, Cavour - San Carlo, Livorno</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>€ 185.000</t>
+          <t>https://www.immobiliare.it/annunci/68325253/</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>€ 310.000</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>5+</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>156</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -3411,146 +3814,166 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Appartamento piazza Daniele Manin 15, Cavour - San Carlo, Livorno</t>
+          <t>Appartamento via dell'Indipendenza 20, Cavour - San Carlo, Livorno</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>€ 315.000</t>
+          <t>https://www.immobiliare.it/annunci/83405407/</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>5+</t>
+          <t>€ 385.000</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
           <t>3</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>59</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Appartamento via dell'Indipendenza 20, Cavour - San Carlo, Livorno</t>
+          <t>Appartamento Scali D'azeglio, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>€ 385.000</t>
+          <t>https://www.immobiliare.it/annunci/100470066/</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>€ 400.000</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>5+</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>220</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Appartamento Scali D'azeglio, Via Grande - Piazza della Repubblica, Livorno</t>
+          <t>Appartamento ottimo stato, Cavour - San Carlo, Livorno</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/104035903/</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
           <t>€ 400.000</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>5+</t>
-        </is>
-      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>230</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>R</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Appartamento ottimo stato, Cavour - San Carlo, Livorno</t>
+          <t>Appartamento ottimo stato, secondo piano, Cavour - San Carlo, Livorno</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>https://www.immobiliare.it/annunci/97628776/</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>€ 400.000</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>230</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -3559,242 +3982,274 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Appartamento ottimo stato, secondo piano, Cavour - San Carlo, Livorno</t>
+          <t>Monolocale a Cisternone - Cavour, Livorno</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>€ 400.000</t>
+          <t>https://www.idealista.it/immobile/25775077/</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>65.000€</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>1 locale</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>35 m2</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>4º piano senza ascensore</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Monolocale a Cisternone - Cavour, Livorno</t>
+          <t>Bilocale a Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>65.000€</t>
+          <t>https://www.idealista.it/immobile/24985298/</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1 locale</t>
+          <t>125.000€</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>35 m2</t>
+          <t>2 locali</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>4º piano senza ascensore</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr"/>
+          <t>40 m2</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7º piano con ascensore</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Bilocale a Centro Storico, Livorno</t>
+          <t>Bilocale a Cisternone - Cavour, Livorno</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>125.000€</t>
+          <t>https://www.idealista.it/immobile/22879344/</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>49.000€</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>2 locali</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>40 m2</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>7º piano con ascensore</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6º piano con ascensore</t>
+        </is>
+      </c>
       <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Bilocale a Cisternone - Cavour, Livorno</t>
+          <t>Bilocale in via Grande, Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>49.000€</t>
+          <t>https://www.idealista.it/immobile/26297816/</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>125.000€</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>2 locali</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>40 m2</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>6º piano con ascensore</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7º piano senza ascensore</t>
+        </is>
+      </c>
       <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Bilocale in via Grande, Centro Storico, Livorno</t>
+          <t>Monolocale in via Santa Giulia, 2, Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>125.000€</t>
+          <t>https://www.idealista.it/immobile/22771541/</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2 locali</t>
+          <t>65.000€</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>40 m2</t>
+          <t>1 locale</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>7º piano senza ascensore</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr"/>
+          <t>44 m2</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1º piano con ascensore</t>
+        </is>
+      </c>
       <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Monolocale in via Santa Giulia, 2, Centro Storico, Livorno</t>
+          <t>Bilocale in via Cairoli, 215, Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>65.000€</t>
+          <t>https://www.idealista.it/immobile/25322533/</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1 locale</t>
+          <t>125.000€</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>44 m2</t>
+          <t>2 locali</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1º piano con ascensore</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr"/>
+          <t>45 m2</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7º piano con ascensore</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Bilocale in via Cairoli, 215, Centro Storico, Livorno</t>
+          <t>Monolocale a San Marco - Pontino, Livorno</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>125.000€</t>
+          <t>https://www.idealista.it/immobile/27550156/</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2 locali</t>
+          <t>110.000€</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
+          <t>1 locale</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
           <t>45 m2</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>7º piano con ascensore</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3º piano senza ascensore</t>
+        </is>
+      </c>
       <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Monolocale a San Marco - Pontino, Livorno</t>
+          <t>Bilocale a Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>110.000€</t>
+          <t>https://www.idealista.it/immobile/27528910/</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1 locale</t>
+          <t>67.000€</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
+          <t>2 locali</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
           <t>45 m2</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>3º piano senza ascensore</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3º piano con ascensore</t>
+        </is>
+      </c>
       <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3804,171 +4259,201 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>67.000€</t>
+          <t>https://www.idealista.it/immobile/26712899/</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>75.000€</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>2 locali</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>45 m2</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>3º piano con ascensore</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4º piano con ascensore</t>
+        </is>
+      </c>
       <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Bilocale a Centro Storico, Livorno</t>
+          <t>Bilocale in via dei Mulini, Cisternone - Cavour, Livorno</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>75.000€</t>
+          <t>https://www.idealista.it/immobile/26470091/</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>74.000€</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>2 locali</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>45 m2</t>
-        </is>
-      </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>4º piano con ascensore</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr"/>
+          <t>48 m2</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2º piano con ascensore</t>
+        </is>
+      </c>
       <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Bilocale in via dei Mulini, Cisternone - Cavour, Livorno</t>
+          <t>Bilocale in via Grande, Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>74.000€</t>
+          <t>https://www.idealista.it/immobile/26792693/</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>110.000€</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>2 locali</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>48 m2</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>2º piano con ascensore</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6º piano con ascensore</t>
+        </is>
+      </c>
       <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Bilocale in via Grande, Centro Storico, Livorno</t>
+          <t>Bilocale a Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>110.000€</t>
+          <t>https://www.idealista.it/immobile/25393367/</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>80.000€</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>2 locali</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>48 m2</t>
-        </is>
-      </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>6º piano con ascensore</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr"/>
+          <t>50 m2</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Piano rialzato con ascensore</t>
+        </is>
+      </c>
       <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Bilocale a Centro Storico, Livorno</t>
+          <t>Bilocale in Centro, Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>80.000€</t>
+          <t>https://www.idealista.it/immobile/24759325/</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>125.000€</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>2 locali</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>50 m2</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Piano rialzato con ascensore</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7º piano con ascensore</t>
+        </is>
+      </c>
       <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Bilocale in Centro, Centro Storico, Livorno</t>
+          <t>Bilocale a Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>125.000€</t>
+          <t>https://www.idealista.it/immobile/27236632/</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>63.000€</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>2 locali</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>50 m2</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>7º piano con ascensore</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4º piano senza ascensore</t>
+        </is>
+      </c>
       <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3978,26 +4463,31 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
+          <t>https://www.idealista.it/immobile/20982948/</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
           <t>90.000€</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>2 locali</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>50 m2</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>senza ascensore</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4007,1085 +4497,1282 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>63.000€</t>
+          <t>https://www.idealista.it/immobile/25480542/</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>65.000€</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>2 locali</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>50 m2</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>4º piano senza ascensore</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>senza ascensore</t>
+        </is>
+      </c>
       <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Bilocale a Centro Storico, Livorno</t>
+          <t>Bilocale a Garibaldi - Zola, Livorno</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>65.000€</t>
+          <t>https://www.idealista.it/immobile/26731794/</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>69.000€</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>2 locali</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>50 m2</t>
-        </is>
-      </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>senza ascensore</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr"/>
+          <t>51 m2</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4º piano con ascensore</t>
+        </is>
+      </c>
       <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Bilocale a Garibaldi - Zola, Livorno</t>
+          <t>Bilocale in piazza della Repubblica, 64, Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
+          <t>https://www.idealista.it/immobile/27474020/</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
           <t>69.000€</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>2 locali</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>51 m2</t>
-        </is>
-      </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>4º piano con ascensore</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr"/>
+          <t>55 m2</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1º piano con ascensore</t>
+        </is>
+      </c>
       <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Bilocale in piazza della Repubblica, 64, Centro Storico, Livorno</t>
+          <t>Bilocale in piazza della Repubblica, 74, Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
+          <t>https://www.idealista.it/immobile/27498589/</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
           <t>69.000€</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>2 locali</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>55 m2</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>1º piano con ascensore</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1º piano senza ascensore</t>
+        </is>
+      </c>
       <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Bilocale in piazza della Repubblica, 74, Centro Storico, Livorno</t>
+          <t>Bilocale in via dei Fulgidi, 14, Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>69.000€</t>
+          <t>https://www.idealista.it/immobile/27417287/</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>120.000€</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>2 locali</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>55 m2</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>1º piano senza ascensore</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4º piano con ascensore</t>
+        </is>
+      </c>
       <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Bilocale in via dei Fulgidi, 14, Centro Storico, Livorno</t>
+          <t>Bilocale a Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>120.000€</t>
+          <t>https://www.idealista.it/immobile/26803263/</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>80.000€</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>2 locali</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>55 m2</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>4º piano con ascensore</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2º piano senza ascensore</t>
+        </is>
+      </c>
       <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Bilocale a Centro Storico, Livorno</t>
+          <t>Bilocale in via Cosimo del Fante, Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>80.000€</t>
+          <t>https://www.idealista.it/immobile/26031248/</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>125.000€</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>2 locali</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>55 m2</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>2º piano senza ascensore</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1º piano con ascensore</t>
+        </is>
+      </c>
       <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Bilocale in via Cosimo del Fante, Centro Storico, Livorno</t>
+          <t>Trilocale a Cisternone - Cavour, Livorno</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>125.000€</t>
+          <t>https://www.idealista.it/immobile/23930343/</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2 locali</t>
+          <t>105.000€</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
+          <t>3 locali</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
           <t>55 m2</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>1º piano con ascensore</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Piano terra senza ascensore</t>
+        </is>
+      </c>
       <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Trilocale a Cisternone - Cavour, Livorno</t>
+          <t>Trilocale a Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>105.000€</t>
+          <t>https://www.idealista.it/immobile/27102748/</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>77.000€</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>3 locali</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>55 m2</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Piano terra senza ascensore</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4º piano senza ascensore</t>
+        </is>
+      </c>
       <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Trilocale a Centro Storico, Livorno</t>
+          <t>Bilocale a Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>77.000€</t>
+          <t>https://www.idealista.it/immobile/24179484/</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>3 locali</t>
+          <t>110.000€</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
+          <t>2 locali</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
           <t>55 m2</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>4º piano senza ascensore</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5º piano con ascensore</t>
+        </is>
+      </c>
       <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Bilocale a Centro Storico, Livorno</t>
+          <t>Trilocale a Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>110.000€</t>
+          <t>https://www.idealista.it/immobile/20958924/</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2 locali</t>
+          <t>104.000€</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
+          <t>3 locali</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
           <t>55 m2</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>5º piano con ascensore</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Trilocale a Centro Storico, Livorno</t>
+          <t>Bilocale a Cisternone - Cavour, Livorno</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>104.000€</t>
+          <t>https://www.idealista.it/immobile/14724377/</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>3 locali</t>
+          <t>85.000€</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
+          <t>2 locali</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
           <t>55 m2</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>5º piano con ascensore</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2º piano senza ascensore</t>
+        </is>
+      </c>
       <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Bilocale a Cisternone - Cavour, Livorno</t>
+          <t>Trilocale a Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>85.000€</t>
+          <t>https://www.idealista.it/immobile/21680148/</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2 locali</t>
+          <t>75.000€</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
+          <t>3 locali</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
           <t>55 m2</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>2º piano senza ascensore</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>senza ascensore</t>
+        </is>
+      </c>
       <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Trilocale a Centro Storico, Livorno</t>
+          <t>Bilocale in via Giuseppe Verdi, Porta a Mare - Cappuccini, Livorno</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>75.000€</t>
+          <t>https://www.idealista.it/immobile/27461186/</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>3 locali</t>
+          <t>92.000€</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>55 m2</t>
+          <t>2 locali</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>senza ascensore</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr"/>
+          <t>56 m2</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3º piano senza ascensore</t>
+        </is>
+      </c>
       <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Bilocale in via Giuseppe Verdi, Porta a Mare - Cappuccini, Livorno</t>
+          <t>Bilocale in piazza Felice Cavallotti, Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>92.000€</t>
+          <t>https://www.idealista.it/immobile/25628416/</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>110.000€</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>2 locali</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>56 m2</t>
-        </is>
-      </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>3º piano senza ascensore</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr"/>
+          <t>57 m2</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1º piano senza ascensore</t>
+        </is>
+      </c>
       <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Bilocale in piazza Felice Cavallotti, Centro Storico, Livorno</t>
+          <t>Monolocale</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>110.000€</t>
+          <t>https://www.casa.it/immobili/46414069/</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2 locali</t>
+          <t>€ 65.000
+Tua da € 230/mese</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>57 m2</t>
+          <t>35 mq</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>1º piano senza ascensore</t>
+          <t>1 locali</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Monolocale</t>
+          <t>Monolocale in Via Santa Giulia 2</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/42583420/</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
         <is>
           <t>€ 65.000
 Tua da € 230/mese</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>35 mq</t>
-        </is>
-      </c>
       <c r="D117" t="inlineStr">
         <is>
+          <t>44 mq</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
           <t>1 locali</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Monolocale in Via Santa Giulia 2</t>
+          <t>Bilocale in Via Cairoli 215</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/44914519/</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>€ 125.000
+Tua da € 442/mese</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>45 mq</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2 locali</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Bilocale</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46925864/</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>€ 67.000
+Tua da € 237/mese</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>45 mq</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2 locali</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Bilocale</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/45948333/</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>€ 80.000
+Tua da € 283/mese</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>50 mq</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>2 locali</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Bilocale</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/45196936/</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
         <is>
           <t>€ 65.000
 Tua da € 230/mese</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>44 mq</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>1 locali</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Bilocale in Via Cairoli 215</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>50 mq</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2 locali</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Bilocale</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46675362/</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>€ 63.000
+Tua da € 223/mese</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>50 mq</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2 locali</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Bilocale</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/42095803/</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>€ 90.000
+Tua da € 318/mese</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>50 mq</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2 locali</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Bilocale in Piazza della Repubblica 64</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46874514/</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>€ 69.000
+Tua da € 244/mese</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>55 mq</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2 locali</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Trilocale</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46556658/</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>€ 77.000
+Tua da € 272/mese</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>55 mq</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>3 locali</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Bilocale in Via Cosimo del Fante</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/45557819/</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
         <is>
           <t>€ 125.000
 Tua da € 442/mese</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>45 mq</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>55 mq</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
         <is>
           <t>2 locali</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Bilocale in Via dei Fulgidi 14</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46821605/</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>€ 120.000
+Tua da € 424/mese</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>55 mq</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2 locali</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
         <is>
           <t>Bilocale</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>€ 67.000
-Tua da € 237/mese</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>45 mq</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>2 locali</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Bilocale</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46274068/</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
         <is>
           <t>€ 80.000
 Tua da € 283/mese</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>50 mq</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>55 mq</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
         <is>
           <t>2 locali</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Bilocale</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>€ 65.000
-Tua da € 230/mese</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>50 mq</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>2 locali</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Bilocale</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>€ 63.000
-Tua da € 223/mese</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>50 mq</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>2 locali</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Bilocale</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>€ 90.000
-Tua da € 318/mese</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>50 mq</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>2 locali</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Bilocale in Piazza della Repubblica 64</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>€ 69.000
-Tua da € 244/mese</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>55 mq</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>2 locali</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Trilocale</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>€ 77.000
-Tua da € 272/mese</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>55 mq</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>3 locali</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Bilocale in Via Cosimo del Fante</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>€ 125.000
-Tua da € 442/mese</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>55 mq</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>2 locali</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Bilocale in Via dei Fulgidi 14</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>€ 120.000
-Tua da € 424/mese</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>55 mq</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>2 locali</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Bilocale</t>
+          <t>Bilocale in Via della Coroncina</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>€ 80.000
-Tua da € 283/mese</t>
+          <t>https://www.casa.it/immobili/45691405/</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>55 mq</t>
+          <t>€ 95.000
+Tua da € 336/mese</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
+          <t>58 mq</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
           <t>2 locali</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Bilocale in Via della Coroncina</t>
+          <t>Trilocale in Piazza Grande 12</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/43553648/</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>€ 110.000
+Tua da € 389/mese</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>60 mq</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>3 locali</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Quadrilocale</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/44474351/</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>€ 155.000
+Tua da € 548/mese</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>60 mq</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>4 locali</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Villetta a schiera</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46576000/</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>€ 99.000
+Tua da € 350/mese</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>60 mq</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>3 locali</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Bilocale in Via Grande</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/44209840/</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>€ 118.000
+Tua da € 417/mese</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>60 mq</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2 locali</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Bilocale in Baroni 30</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/45378353/</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>€ 129.000
+Tua da € 456/mese</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>60 mq</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>2 locali</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Trilocale in Via della Coroncina 30</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/45470718/</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
         <is>
           <t>€ 95.000
 Tua da € 336/mese</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>58 mq</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>65 mq</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>3 locali</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Bilocale</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46870162/</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>€ 113.000
+Tua da € 399/mese</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>60 mq</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
         <is>
           <t>2 locali</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Trilocale in Piazza Grande 12</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>€ 110.000
-Tua da € 389/mese</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Trilocale</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46414186/</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>€ 119.000
+Tua da € 421/mese</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
         <is>
           <t>60 mq</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>3 locali</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Quadrilocale</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Trilocale</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/42095277/</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
         <is>
           <t>€ 155.000
 Tua da € 548/mese</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>60 mq</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>4 locali</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Villetta a schiera</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>€ 99.000
-Tua da € 350/mese</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>60 mq</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>70 mq</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
         <is>
           <t>3 locali</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Bilocale in Via Grande</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>€ 118.000
-Tua da € 417/mese</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>60 mq</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>2 locali</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Bilocale in Baroni 30</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>€ 129.000
-Tua da € 456/mese</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>60 mq</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>2 locali</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Trilocale in Via della Coroncina 30</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>€ 95.000
-Tua da € 336/mese</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>65 mq</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>3 locali</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Bilocale</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>€ 113.000
-Tua da € 399/mese</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>60 mq</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>2 locali</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Trilocale</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>€ 119.000
-Tua da € 421/mese</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>60 mq</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>3 locali</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Trilocale</t>
+          <t>Bilocale in Via Alessandro Volta</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>€ 155.000
-Tua da € 548/mese</t>
+          <t>https://www.casa.it/immobili/46491360/</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>€ 163.000
+Tua da € 576/mese</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>70 mq</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>3 locali</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2 locali</t>
+        </is>
+      </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Bilocale in Via Alessandro Volta</t>
+          <t>Trilocale</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>€ 163.000
-Tua da € 576/mese</t>
+          <t>https://www.casa.it/immobili/46391889/</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>70 mq</t>
+          <t>€ 130.000
+Tua da € 459/mese</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2 locali</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr"/>
+          <t>80 mq</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>3 locali</t>
+        </is>
+      </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -5095,153 +5782,183 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>€ 130.000
-Tua da € 459/mese</t>
+          <t>https://www.casa.it/immobili/46288848/</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>80 mq</t>
+          <t>€ 139.000
+Tua da € 491/mese</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
+          <t>84 mq</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
           <t>3 locali</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Trilocale</t>
+          <t>Appartamento</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>€ 139.000
-Tua da € 491/mese</t>
+          <t>https://www.casa.it/immobili/46114652/</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>84 mq</t>
+          <t>€ 150.000
+Tua da € 530/mese</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>3 locali</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr"/>
+          <t>107 mq</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>5 locali</t>
+        </is>
+      </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Appartamento</t>
+          <t>Quadrilocale in Via del Bastione</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>€ 150.000
-Tua da € 530/mese</t>
+          <t>https://www.casa.it/immobili/47040241/</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>107 mq</t>
+          <t>€ 259.000
+Tua da € 915/mese</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>5 locali</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr"/>
+          <t>110 mq</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>4 locali</t>
+        </is>
+      </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Quadrilocale in Via del Bastione</t>
+          <t>Appartamento</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>€ 259.000
-Tua da € 915/mese</t>
+          <t>https://www.casa.it/immobili/46945447/</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>110 mq</t>
+          <t>€ 215.000
+Tua da € 760/mese</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>4 locali</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr"/>
+          <t>113 mq</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>6 locali</t>
+        </is>
+      </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Appartamento</t>
+          <t>Appartamento in Via Enrico Cialdini 33</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>€ 215.000
-Tua da € 760/mese</t>
+          <t>https://www.casa.it/immobili/46607674/</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>113 mq</t>
+          <t>€ 260.000
+Tua da € 919/mese</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>6 locali</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr"/>
+          <t>135 mq</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>5 locali</t>
+        </is>
+      </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Appartamento in Via Enrico Cialdini 33</t>
+          <t>Appartamento</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>€ 260.000
-Tua da € 919/mese</t>
+          <t>https://www.casa.it/immobili/45423609/</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>135 mq</t>
+          <t>€ 210.000
+Tua da € 742/mese</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
+          <t>140 mq</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
           <t>5 locali</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -5251,257 +5968,276 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>€ 210.000
-Tua da € 742/mese</t>
+          <t>https://www.casa.it/immobili/46597059/</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>140 mq</t>
+          <t>€ 141.900
+Tua da € 502/mese</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
+          <t>144 mq</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
           <t>5 locali</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Appartamento</t>
+          <t>Attico/Mansarda in Scali d'Azeglio</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>€ 141.900
-Tua da € 502/mese</t>
+          <t>https://www.casa.it/immobili/46357903/</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>144 mq</t>
+          <t>€ 350.000
+Tua da € 1237/mese</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>5 locali</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr"/>
+          <t>165 mq</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>6 locali</t>
+        </is>
+      </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Attico/Mansarda in Scali d'Azeglio</t>
+          <t>Appartamento in Scali d'Azeglio 4</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/42322150/</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
         <is>
           <t>€ 350.000
 Tua da € 1237/mese</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>165 mq</t>
-        </is>
-      </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>6 locali</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr"/>
+          <t>170 mq</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>5 locali</t>
+        </is>
+      </c>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Appartamento in Scali d'Azeglio 4</t>
+          <t>Appartamento in Via Scali d'Azeglio</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>€ 350.000
-Tua da € 1237/mese</t>
+          <t>https://www.casa.it/immobili/46379365/</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>€ 330.000
+Tua da € 1166/mese</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>170 mq</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>5 locali</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>6 locali</t>
+        </is>
+      </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Appartamento in Via Scali d'Azeglio</t>
+          <t>Appartamento in Via Francesco Crispi</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/47094551/</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>€ 230.000
+Tua da € 813/mese</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>170 mq</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>5 locali</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Appartamento in Scali d'Azeglio</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/45847691/</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>€ 400.000
+Tua da € 1414/mese</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>220 mq</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>6 locali</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Appartamento in Via Cairoli</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/44527549/</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
         <is>
           <t>€ 330.000
 Tua da € 1166/mese</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>170 mq</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>6 locali</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Appartamento in Via Francesco Crispi</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>€ 230.000
-Tua da € 813/mese</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>170 mq</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>262 mq</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
         <is>
           <t>5 locali</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Appartamento in Scali d'Azeglio</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>€ 400.000
-Tua da € 1414/mese</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>220 mq</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>6 locali</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Appartamento in Via Cairoli</t>
+          <t>Appartamento in Largo Fratelli Rosselli</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>€ 330.000
-Tua da € 1166/mese</t>
+          <t>https://www.casa.it/immobili/46792442/</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>262 mq</t>
+          <t>€ 450.000
+Tua da € 1590/mese</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>5 locali</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr"/>
+          <t>280 mq</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>6 locali</t>
+        </is>
+      </c>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Appartamento in Largo Fratelli Rosselli</t>
+          <t>Appartamento in Scali d'Azeglio</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>€ 450.000
-Tua da € 1590/mese</t>
+          <t>https://www.casa.it/immobili/46734281/</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>280 mq</t>
+          <t>€ 600.000
+Tua da € 2121/mese</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>6 locali</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr"/>
+          <t>350 mq</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>12 locali</t>
+        </is>
+      </c>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Appartamento in Scali d'Azeglio</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>€ 600.000
-Tua da € 2121/mese</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>350 mq</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>12 locali</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -1022,44 +1022,44 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Trilocale a Centro Storico, Livorno</t>
+          <t>Bilocale a Cisternone - Cavour, Livorno</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/21680148/</t>
+          <t>https://www.idealista.it/immobile/14724377/</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>75.000€</t>
+          <t>85.000€</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3 locali 55 m2 senza ascensore</t>
+          <t>2 locali 55 m2 2º piano senza ascensore</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bilocale a Cisternone - Cavour, Livorno</t>
+          <t>Trilocale a Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/14724377/</t>
+          <t>https://www.idealista.it/immobile/21680148/</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>85.000€</t>
+          <t>75.000€</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2 locali 55 m2 2º piano senza ascensore</t>
+          <t>3 locali 55 m2 senza ascensore</t>
         </is>
       </c>
     </row>

--- a/file.xlsx
+++ b/file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,666 +446,4778 @@
       <c r="D1" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Monolocale a Cisternone - Cavour, Livorno</t>
+          <t>Bilocale via Grande 100, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/25775077/</t>
+          <t>https://www.immobiliare.it/annunci/95768878/</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>65.000€</t>
+          <t>€ 125.000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1 locale 35 m2 4º piano senza ascensore</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bilocale a Centro Storico, Livorno</t>
+          <t>Bilocale via Grande, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/24985298/</t>
+          <t>https://www.immobiliare.it/annunci/99588888/</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>125.000€</t>
+          <t>€ 125.000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2 locali 40 m2 7º piano con ascensore</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bilocale a Cisternone - Cavour, Livorno</t>
+          <t>Bilocale via Enrico Bartelloni 7, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/22879344/</t>
+          <t>https://www.immobiliare.it/annunci/98094944/</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>49.000€</t>
+          <t>€ 65.000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2 locali 40 m2 6º piano con ascensore</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bilocale in via Grande, Centro Storico, Livorno</t>
+          <t>Bilocale buono stato, quarto piano, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/26297816/</t>
+          <t>https://www.immobiliare.it/annunci/103005154/</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>125.000€</t>
+          <t>€ 63.000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2 locali 40 m2 7º piano senza ascensore</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Monolocale in via Santa Giulia, 2, Centro Storico, Livorno</t>
+          <t>Bilocale buono stato, quarto piano, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/22771541/</t>
+          <t>https://www.immobiliare.it/annunci/98383792/</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>65.000€</t>
+          <t>€ 70.000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1 locale 44 m2 1º piano con ascensore</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bilocale in via Cairoli, 215, Centro Storico, Livorno</t>
+          <t>Bilocale piazza della Repubblica, 64, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/25322533/</t>
+          <t>https://www.immobiliare.it/annunci/103564304/</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>125.000€</t>
+          <t>€ 69.000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2 locali 45 m2 7º piano con ascensore</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Monolocale a San Marco - Pontino, Livorno</t>
+          <t>Bilocale via dei Fulgidi 14, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/27550156/</t>
+          <t>https://www.immobiliare.it/annunci/103378768/</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>110.000€</t>
+          <t>€ 120.000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1 locale 45 m2 3º piano senza ascensore</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bilocale a Centro Storico, Livorno</t>
+          <t>Bilocale via Cosimo Del Fante, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/27528910/</t>
+          <t>https://www.immobiliare.it/annunci/99588344/</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>67.000€</t>
+          <t>€ 128.000</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2 locali 45 m2 3º piano con ascensore</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bilocale a Centro Storico, Livorno</t>
+          <t>Bilocale Scali Aurelio Saffi, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/26712899/</t>
+          <t>https://www.immobiliare.it/annunci/101657327/</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>75.000€</t>
+          <t>€ 93.000</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2 locali 45 m2 4º piano con ascensore</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bilocale in via dei Mulini, Cisternone - Cavour, Livorno</t>
+          <t>Bilocale ottimo stato, quinto piano, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/26470091/</t>
+          <t>https://www.immobiliare.it/annunci/94155368/</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>74.000€</t>
+          <t>€ 110.000</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2 locali 48 m2 2º piano con ascensore</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bilocale in via Grande, Centro Storico, Livorno</t>
+          <t>Bilocale via Grande, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/26792693/</t>
+          <t>https://www.immobiliare.it/annunci/99536246/</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>110.000€</t>
+          <t>€ 125.000</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2 locali 48 m2 6º piano con ascensore</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bilocale a Centro Storico, Livorno</t>
+          <t>Trilocale piazza Felice Cavallotti, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/25393367/</t>
+          <t>https://www.immobiliare.it/annunci/95841912/</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>80.000€</t>
+          <t>€ 90.000</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2 locali 50 m2 Piano rialzato con ascensore</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bilocale in Centro, Centro Storico, Livorno</t>
+          <t>Bilocale piazza Felice Cavallotti, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/24759325/</t>
+          <t>https://www.immobiliare.it/annunci/98487906/</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>125.000€</t>
+          <t>€ 110.000</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2 locali 50 m2 7º piano con ascensore</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bilocale a Centro Storico, Livorno</t>
+          <t>Bilocale via della Coroncina, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/20982948/</t>
+          <t>https://www.immobiliare.it/annunci/99953662/</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>90.000€</t>
+          <t>€ 95.000</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2 locali 50 m2 senza ascensore</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bilocale a Centro Storico, Livorno</t>
+          <t>Bilocale via Grande 30, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/27236632/</t>
+          <t>https://www.immobiliare.it/annunci/91328064/</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>63.000€</t>
+          <t>€ 118.000</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2 locali 50 m2 4º piano senza ascensore</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Bilocale a Centro Storico, Livorno</t>
+          <t>Trilocale via del Cardinale, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/25480542/</t>
+          <t>https://www.immobiliare.it/annunci/96079412/</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>65.000€</t>
+          <t>€ 90.000</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2 locali 50 m2 senza ascensore</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bilocale a Garibaldi - Zola, Livorno</t>
+          <t>Trilocale ottimo stato, terzo piano, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/26731794/</t>
+          <t>https://www.immobiliare.it/annunci/100427240/</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>69.000€</t>
+          <t>€ 105.000</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2 locali 51 m2 4º piano con ascensore</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bilocale in piazza della Repubblica, 64, Centro Storico, Livorno</t>
+          <t>Trilocale ottimo stato, terzo piano, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/27474020/</t>
+          <t>https://www.immobiliare.it/annunci/99398220/</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>69.000€</t>
+          <t>€ 138.000</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2 locali 55 m2 1º piano con ascensore</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Bilocale in piazza della Repubblica, 74, Centro Storico, Livorno</t>
+          <t>Trilocale via della Coroncina 30, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/27498589/</t>
+          <t>https://www.immobiliare.it/annunci/99468900/</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>69.000€</t>
+          <t>€ 95.000</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2 locali 55 m2 1º piano senza ascensore</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Bilocale in via dei Fulgidi, 14, Centro Storico, Livorno</t>
+          <t>Bilocale via Della Coroncina, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/27417287/</t>
+          <t>https://www.immobiliare.it/annunci/99712760/</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>120.000€</t>
+          <t>€ 105.000</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2 locali 55 m2 4º piano con ascensore</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Bilocale a Centro Storico, Livorno</t>
+          <t>Bilocale ottimo stato, quarto piano, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/26803263/</t>
+          <t>https://www.immobiliare.it/annunci/103706468/</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>80.000€</t>
+          <t>€ 120.000</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2 locali 55 m2 2º piano senza ascensore</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Bilocale in via Cosimo del Fante, Centro Storico, Livorno</t>
+          <t>Quadrilocale via della Coroncina, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/26031248/</t>
+          <t>https://www.immobiliare.it/annunci/100086958/</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>125.000€</t>
+          <t>€ 105.000</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2 locali 55 m2 1º piano con ascensore</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Trilocale a Cisternone - Cavour, Livorno</t>
+          <t>Quadrilocale via della Coroncina 32, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/23930343/</t>
+          <t>https://www.immobiliare.it/annunci/99884816/</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>105.000€</t>
+          <t>€ 105.000</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3 locali 55 m2 Piano terra senza ascensore</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Bilocale a Centro Storico, Livorno</t>
+          <t>Trilocale piazza Guerrazzi 9, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/24179484/</t>
+          <t>https://www.immobiliare.it/annunci/97827100/</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>110.000€</t>
+          <t>€ 85.000</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2 locali 55 m2 5º piano con ascensore</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Trilocale a Centro Storico, Livorno</t>
+          <t>Trilocale piazza grande, 1, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/27102748/</t>
+          <t>https://www.immobiliare.it/annunci/101938130/</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>77.000€</t>
+          <t>€ 130.000</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3 locali 55 m2 4º piano senza ascensore</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Trilocale a Centro Storico, Livorno</t>
+          <t>Trilocale Scali d'Azeglio, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/20958924/</t>
+          <t>https://www.immobiliare.it/annunci/103458318/</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>104.000€</t>
+          <t>€ 155.000</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3 locali 55 m2 5º piano con ascensore</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Bilocale a Cisternone - Cavour, Livorno</t>
+          <t>Quadrilocale Scali d'Azeglio, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/14724377/</t>
+          <t>https://www.immobiliare.it/annunci/97936610/</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>85.000€</t>
+          <t>€ 200.000</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2 locali 55 m2 2º piano senza ascensore</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Trilocale a Centro Storico, Livorno</t>
+          <t>Appartamento Scali d'Azeglio 20, Livorno</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/21680148/</t>
+          <t>https://www.immobiliare.it/annunci/103735754/</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>75.000€</t>
+          <t>€ 250.000</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3 locali 55 m2 senza ascensore</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Bilocale in via Giuseppe Verdi, Porta a Mare - Cappuccini, Livorno</t>
+          <t>Quadrilocale via Enrico Cialdini, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/27461186/</t>
+          <t>https://www.immobiliare.it/annunci/102579864/</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>92.000€</t>
+          <t>€ 259.000</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2 locali 56 m2 3º piano senza ascensore</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Bilocale in piazza Felice Cavallotti, Centro Storico, Livorno</t>
+          <t>Quadrilocale via del Bastione, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/25628416/</t>
+          <t>https://www.immobiliare.it/annunci/104147931/</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>110.000€</t>
+          <t>€ 259.000</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2 locali 57 m2 1º piano senza ascensore</t>
-        </is>
-      </c>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Appartamento ottimo stato, terzo piano, Cavour - San Carlo, Livorno</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/99098112/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>€ 210.000</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Appartamento buono stato, secondo piano, Cavour - San Carlo, Livorno</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/99535440/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>€ 350.000</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5+</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Appartamento ottimo stato, secondo piano, Via Grande - Piazza della Repubblica, Livorno</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/94191876/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>€ 330.000</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5+</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Appartamento buono stato, secondo piano, Via Grande - Piazza della Repubblica, Livorno</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/101962938/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>€ 350.000</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5+</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Appartamento Scali D'azeglio, 4, Via Grande - Piazza della Repubblica, Livorno</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/94925944/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>€ 350.000</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Appartamento ottimo stato, primo piano, Via Grande - Piazza della Repubblica, Livorno</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/104374411/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>€ 230.000</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Appartamento buono stato, secondo piano, Via Grande - Piazza della Repubblica, Livorno</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/101642139/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>€ 350.000</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Appartamento Scali d'Azeglio, Via Grande - Piazza della Repubblica, Livorno</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/103441854/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>€ 395.000</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Quadrilocale via Dell'indipendenza, 1, Cavour - San Carlo, Livorno</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/94680134/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>€ 400.000</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Appartamento largo Fratelli Rosselli, Via Grande - Piazza della Repubblica, Livorno</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/103286190/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>€ 450.000</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Appartamento Scali d'Azeglio, Via Grande - Piazza della Repubblica, Livorno</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/96892944/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>€ 217.000</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5+</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Appartamento Scali d'Azeglio, Via Grande - Piazza della Repubblica, Livorno</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/103183666/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>€ 600.000</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5+</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Monolocale piazza Camillo Benso di Cavour, Cavour - San Carlo, Livorno</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/98630370/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>€ 65.000</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Monolocale buono stato, quarto piano, Cisternone, Livorno</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/102121676/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>€ 65.000</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Bilocale ottimo stato, Via Grande - Piazza della Repubblica, Livorno</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/103715090/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>€ 70.000</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Monolocale via Ernesto Rossi, Cisternone, Livorno</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/102127328/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>€ 60.000</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Bilocale via dei Mulini, Cisternone, Livorno</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/103919517/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>€ 74.000</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Bilocale via Magenta, Attias - Marconi, Livorno</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/98844064/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>€ 115.000</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Bilocale via Maggi, Cisternone, Livorno</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/102436770/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>€ 104.000</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Bilocale via Fiorenza, Cisternone, Livorno</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/102349888/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>€ 110.000</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Bilocale ottimo stato, piano rialzato, Cisternone, Livorno</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/103212710/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>€ 104.000</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Bilocale ottimo stato, piano terra, Cisternone, Livorno</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/102068850/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>€ 104.000</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Trilocale buono stato, secondo piano, Cisternone, Livorno</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/101984074/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>€ 75.000</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Trilocale via Maggi, Cisternone, Livorno</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/104577005/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>€ 105.000</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Trilocale via Fiorenza, Cisternone, Livorno</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/104676327/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>€ 105.000</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Trilocale via Fagiuoli 2, Cisternone, Livorno</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/102455786/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>€ 105.000</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Trilocale via Maggi, Cisternone, Livorno</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/102777498/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>€ 90.000</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Trilocale ottimo stato, terzo piano, Cisternone, Livorno</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/91938336/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>€ 129.000</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Quadrilocale via Maggi 88C, Cisternone, Livorno</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/101512983/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>€ 55.000</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Trilocale Scali degli Olandesi 56, Via Grande - Piazza della Repubblica, Livorno</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/95286216/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>€ 118.000</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Bilocale via Fagiuoli, Cisternone, Livorno</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/104101885/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>€ 105.000</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Trilocale buono stato, Cisternone, Livorno</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/103715174/</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>€ 90.000</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Trilocale da ristrutturare, terzo piano, Cisternone, Livorno</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/95194334/</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>€ 90.000</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Quadrilocale via della Rondinella 14, Cisternone, Livorno</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/102205288/</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>€ 145.000</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Trilocale via Maggi, Cisternone, Livorno</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/104754215/</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>€ 130.000</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Quadrilocale via Bernardina, Cisternone, Livorno</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/102192930/</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>€ 145.000</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Appartamento Area Residenziale centro, Cisternone, Livorno</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/92057456/</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>€ 109.000</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5+</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Quadrilocale via della maddalena , 5, Cavour - San Carlo, Livorno</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/94926028/</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>€ 135.000</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Quadrilocale via degli Apostoli, Cavour - San Carlo, Livorno</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/100530508/</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>€ 230.000</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Quadrilocale via della Vecchia Casina, Cavour - San Carlo, Livorno</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/103609528/</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>€ 115.000</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Appartamento via degli Apostoli, Cavour - San Carlo, Livorno</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/102011422/</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>€ 145.000</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Trilocale via degli Apostoli, Cavour - San Carlo, Livorno</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/101473923/</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>€ 215.000</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Quadrilocale via Indipendenza, Cavour - San Carlo, Livorno</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/100456088/</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>€ 215.000</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Appartamento da ristrutturare, terzo piano, Porta a Mare - Mazzini, Livorno</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/102482092/</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>€ 148.000</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Quadrilocale ottimo stato, Cavour - San Carlo, Livorno</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/100688821/</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>€ 215.000</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Appartamento piazza Giuseppe Mazzini, Porta a Mare - Mazzini, Livorno</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/97313264/</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>€ 150.000</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Appartamento ottimo stato, Cavour - San Carlo, Livorno</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/103162092/</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>€ 199.000</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Appartamento da ristrutturare, primo piano, Via Grande - Piazza della Repubblica, Livorno</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/102578632/</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>€ 160.000</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5+</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Quadrilocale piazza Giuseppe Mazzini 13, Porta a Mare - Mazzini, Livorno</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/99628044/</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>€ 185.000</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Appartamento piazza Daniele Manin 15, Cavour - San Carlo, Livorno</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/68325253/</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>€ 310.000</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5+</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Appartamento via dell'Indipendenza 20, Cavour - San Carlo, Livorno</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/83405407/</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>€ 385.000</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Appartamento Scali D'azeglio, Via Grande - Piazza della Repubblica, Livorno</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/100470066/</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>€ 400.000</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5+</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Appartamento ottimo stato, Cavour - San Carlo, Livorno</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/104035903/</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>€ 400.000</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Appartamento ottimo stato, secondo piano, Cavour - San Carlo, Livorno</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://www.immobiliare.it/annunci/97628776/</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>€ 400.000</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Monolocale</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46414069/</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>€ 65.000
+Tua da € 230/mese</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>35 mq</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1 locali</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Monolocale in Via Santa Giulia 2</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/42583420/</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>€ 65.000
+Tua da € 230/mese</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>44 mq</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1 locali</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Bilocale in Via Cairoli 215</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/44914519/</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>€ 125.000
+Tua da € 442/mese</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>45 mq</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2 locali</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Bilocale</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46925864/</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>€ 67.000
+Tua da € 237/mese</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>45 mq</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2 locali</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Bilocale</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/45948333/</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>€ 80.000
+Tua da € 283/mese</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>50 mq</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2 locali</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Bilocale</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/45196936/</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>€ 65.000
+Tua da € 230/mese</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>50 mq</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2 locali</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Bilocale</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46675362/</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>€ 63.000
+Tua da € 223/mese</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>50 mq</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2 locali</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Bilocale</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/42095803/</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>€ 90.000
+Tua da € 318/mese</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>50 mq</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2 locali</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Bilocale in Piazza della Repubblica 64</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46874514/</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>€ 69.000
+Tua da € 244/mese</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>55 mq</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2 locali</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Trilocale</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46556658/</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>€ 77.000
+Tua da € 272/mese</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>55 mq</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>3 locali</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Bilocale in Via Cosimo del Fante</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/45557819/</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>€ 125.000
+Tua da € 442/mese</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>55 mq</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2 locali</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Bilocale in Via dei Fulgidi 14</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46821605/</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>€ 120.000
+Tua da € 424/mese</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>55 mq</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2 locali</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Bilocale</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46274068/</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>€ 80.000
+Tua da € 283/mese</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>55 mq</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2 locali</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Bilocale in Via della Coroncina</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/45691405/</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>€ 95.000
+Tua da € 336/mese</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>58 mq</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2 locali</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Trilocale in Piazza Grande 12</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/43553648/</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>€ 110.000
+Tua da € 389/mese</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>60 mq</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>3 locali</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Quadrilocale</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/44474351/</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>€ 155.000
+Tua da € 548/mese</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>60 mq</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>4 locali</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Villetta a schiera</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46576000/</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>€ 99.000
+Tua da € 350/mese</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>60 mq</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>3 locali</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Bilocale in Via Grande</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/44209840/</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>€ 118.000
+Tua da € 417/mese</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>60 mq</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2 locali</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Bilocale in Baroni 30</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/45378353/</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>€ 129.000
+Tua da € 456/mese</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>60 mq</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2 locali</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Trilocale in Via della Coroncina 30</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/45470718/</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>€ 95.000
+Tua da € 336/mese</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>65 mq</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>3 locali</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Bilocale</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46870162/</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>€ 113.000
+Tua da € 399/mese</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>60 mq</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2 locali</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Trilocale</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46414186/</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>€ 119.000
+Tua da € 421/mese</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>60 mq</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>3 locali</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Trilocale</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/42095277/</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>€ 155.000
+Tua da € 548/mese</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>70 mq</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>3 locali</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Bilocale in Via Alessandro Volta</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46491360/</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>€ 163.000
+Tua da € 576/mese</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>70 mq</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2 locali</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Trilocale</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46391889/</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>€ 130.000
+Tua da € 459/mese</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>80 mq</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>3 locali</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Trilocale</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46288848/</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>€ 139.000
+Tua da € 491/mese</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>84 mq</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>3 locali</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Appartamento</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46114652/</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>€ 150.000
+Tua da € 530/mese</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>107 mq</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>5 locali</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Quadrilocale in Via del Bastione</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/47040241/</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>€ 259.000
+Tua da € 915/mese</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>110 mq</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>4 locali</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Appartamento</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46945447/</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>€ 215.000
+Tua da € 760/mese</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>113 mq</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>6 locali</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Appartamento in Via Enrico Cialdini 33</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46607674/</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>€ 260.000
+Tua da € 919/mese</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>135 mq</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>5 locali</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Appartamento</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/45423609/</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>€ 210.000
+Tua da € 742/mese</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>140 mq</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>5 locali</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Appartamento</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46597059/</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>€ 141.900
+Tua da € 502/mese</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>144 mq</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>5 locali</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Attico/Mansarda in Scali d'Azeglio</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46357903/</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>€ 350.000
+Tua da € 1237/mese</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>165 mq</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>6 locali</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Appartamento in Scali d'Azeglio 4</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/42322150/</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>€ 350.000
+Tua da € 1237/mese</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>170 mq</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>5 locali</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Appartamento in Via Scali d'Azeglio</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46379365/</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>€ 330.000
+Tua da € 1166/mese</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>170 mq</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>6 locali</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Appartamento in Via Francesco Crispi</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/47094551/</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>€ 230.000
+Tua da € 813/mese</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>170 mq</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>5 locali</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Appartamento in Scali d'Azeglio</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/45847691/</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>€ 400.000
+Tua da € 1414/mese</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>220 mq</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>6 locali</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Appartamento in Via Cairoli</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/44527549/</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>€ 330.000
+Tua da € 1166/mese</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>262 mq</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>5 locali</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Appartamento in Largo Fratelli Rosselli</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46792442/</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>€ 450.000
+Tua da € 1590/mese</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>280 mq</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>6 locali</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Appartamento in Scali d'Azeglio</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46734281/</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>€ 600.000
+Tua da € 2121/mese</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>350 mq</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>12 locali</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3979,1246 +3979,6 @@
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Monolocale</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/46414069/</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>€ 65.000
-Tua da € 230/mese</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>35 mq</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>1 locali</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Monolocale in Via Santa Giulia 2</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/42583420/</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>€ 65.000
-Tua da € 230/mese</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>44 mq</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>1 locali</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Bilocale in Via Cairoli 215</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/44914519/</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>€ 125.000
-Tua da € 442/mese</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>45 mq</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>2 locali</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Bilocale</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/46925864/</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>€ 67.000
-Tua da € 237/mese</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>45 mq</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>2 locali</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Bilocale</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/45948333/</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>€ 80.000
-Tua da € 283/mese</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>50 mq</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>2 locali</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Bilocale</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/45196936/</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>€ 65.000
-Tua da € 230/mese</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>50 mq</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>2 locali</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Bilocale</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/46675362/</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>€ 63.000
-Tua da € 223/mese</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>50 mq</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>2 locali</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Bilocale</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/42095803/</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>€ 90.000
-Tua da € 318/mese</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>50 mq</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>2 locali</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Bilocale in Piazza della Repubblica 64</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/46874514/</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>€ 69.000
-Tua da € 244/mese</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>55 mq</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>2 locali</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Trilocale</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/46556658/</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>€ 77.000
-Tua da € 272/mese</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>55 mq</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>3 locali</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Bilocale in Via Cosimo del Fante</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/45557819/</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>€ 125.000
-Tua da € 442/mese</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>55 mq</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>2 locali</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Bilocale in Via dei Fulgidi 14</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/46821605/</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>€ 120.000
-Tua da € 424/mese</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>55 mq</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>2 locali</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Bilocale</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/46274068/</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>€ 80.000
-Tua da € 283/mese</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>55 mq</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>2 locali</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Bilocale in Via della Coroncina</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/45691405/</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>€ 95.000
-Tua da € 336/mese</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>58 mq</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>2 locali</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Trilocale in Piazza Grande 12</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/43553648/</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>€ 110.000
-Tua da € 389/mese</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>60 mq</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>3 locali</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Quadrilocale</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/44474351/</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>€ 155.000
-Tua da € 548/mese</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>60 mq</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>4 locali</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Villetta a schiera</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/46576000/</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>€ 99.000
-Tua da € 350/mese</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>60 mq</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>3 locali</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Bilocale in Via Grande</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/44209840/</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>€ 118.000
-Tua da € 417/mese</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>60 mq</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>2 locali</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Bilocale in Baroni 30</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/45378353/</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>€ 129.000
-Tua da € 456/mese</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>60 mq</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>2 locali</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Trilocale in Via della Coroncina 30</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/45470718/</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>€ 95.000
-Tua da € 336/mese</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>65 mq</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>3 locali</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Bilocale</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/46870162/</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>€ 113.000
-Tua da € 399/mese</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>60 mq</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>2 locali</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Trilocale</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/46414186/</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>€ 119.000
-Tua da € 421/mese</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>60 mq</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>3 locali</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Trilocale</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/42095277/</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>€ 155.000
-Tua da € 548/mese</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>70 mq</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>3 locali</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Bilocale in Via Alessandro Volta</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/46491360/</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>€ 163.000
-Tua da € 576/mese</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>70 mq</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>2 locali</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Trilocale</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/46391889/</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>€ 130.000
-Tua da € 459/mese</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>80 mq</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>3 locali</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Trilocale</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/46288848/</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>€ 139.000
-Tua da € 491/mese</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>84 mq</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>3 locali</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Appartamento</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/46114652/</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>€ 150.000
-Tua da € 530/mese</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>107 mq</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>5 locali</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Quadrilocale in Via del Bastione</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/47040241/</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>€ 259.000
-Tua da € 915/mese</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>110 mq</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>4 locali</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Appartamento</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/46945447/</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>€ 215.000
-Tua da € 760/mese</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>113 mq</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>6 locali</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Appartamento in Via Enrico Cialdini 33</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/46607674/</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>€ 260.000
-Tua da € 919/mese</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>135 mq</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>5 locali</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Appartamento</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/45423609/</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>€ 210.000
-Tua da € 742/mese</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>140 mq</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>5 locali</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Appartamento</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/46597059/</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>€ 141.900
-Tua da € 502/mese</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>144 mq</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>5 locali</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Attico/Mansarda in Scali d'Azeglio</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/46357903/</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>€ 350.000
-Tua da € 1237/mese</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>165 mq</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>6 locali</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Appartamento in Scali d'Azeglio 4</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/42322150/</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>€ 350.000
-Tua da € 1237/mese</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>170 mq</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>5 locali</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Appartamento in Via Scali d'Azeglio</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/46379365/</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>€ 330.000
-Tua da € 1166/mese</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>170 mq</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>6 locali</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Appartamento in Via Francesco Crispi</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/47094551/</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>€ 230.000
-Tua da € 813/mese</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>170 mq</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>5 locali</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Appartamento in Scali d'Azeglio</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/45847691/</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>€ 400.000
-Tua da € 1414/mese</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>220 mq</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>6 locali</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Appartamento in Via Cairoli</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/44527549/</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>€ 330.000
-Tua da € 1166/mese</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>262 mq</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>5 locali</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Appartamento in Largo Fratelli Rosselli</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/46792442/</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>€ 450.000
-Tua da € 1590/mese</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>280 mq</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>6 locali</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Appartamento in Scali d'Azeglio</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>https://www.casa.it/immobili/46734281/</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>€ 600.000
-Tua da € 2121/mese</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>350 mq</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>12 locali</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/file.xlsx
+++ b/file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3979,6 +3979,786 @@
         </is>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Monolocale a Cisternone - Cavour, Livorno</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/25775077/</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>65.000€</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1 locale 35 m2 4º piano senza ascensore</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Bilocale a Centro Storico, Livorno</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/24985298/</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>125.000€</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2 locali 40 m2 7º piano con ascensore</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Bilocale a Cisternone - Cavour, Livorno</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/22879344/</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>49.000€</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2 locali 40 m2 6º piano con ascensore</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Bilocale in via Grande, Centro Storico, Livorno</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/26297816/</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>125.000€</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2 locali 40 m2 7º piano senza ascensore</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Monolocale in via Santa Giulia, 2, Centro Storico, Livorno</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/22771541/</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>65.000€</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1 locale 44 m2 1º piano con ascensore</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Bilocale in via Cairoli, 215, Centro Storico, Livorno</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/25322533/</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>125.000€</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2 locali 45 m2 7º piano con ascensore</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Monolocale a San Marco - Pontino, Livorno</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/27550156/</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>110.000€</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1 locale 45 m2 3º piano senza ascensore</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Bilocale a Centro Storico, Livorno</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/27528910/</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>67.000€</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2 locali 45 m2 3º piano con ascensore</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Bilocale a Centro Storico, Livorno</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/26712899/</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>75.000€</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2 locali 45 m2 4º piano con ascensore</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Bilocale in via dei Mulini, Cisternone - Cavour, Livorno</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/26470091/</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>74.000€</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2 locali 48 m2 2º piano con ascensore</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Bilocale in via Grande, Centro Storico, Livorno</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/26792693/</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>110.000€</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2 locali 48 m2 6º piano con ascensore</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Bilocale a Centro Storico, Livorno</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/25393367/</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>80.000€</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2 locali 50 m2 Piano rialzato con ascensore</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Bilocale in Centro, Centro Storico, Livorno</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/24759325/</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>125.000€</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2 locali 50 m2 7º piano con ascensore</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Bilocale a Centro Storico, Livorno</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/27236632/</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>63.000€</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2 locali 50 m2 4º piano senza ascensore</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Bilocale a Centro Storico, Livorno</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/20982948/</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>90.000€</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2 locali 50 m2 senza ascensore</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Bilocale a Centro Storico, Livorno</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/25480542/</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>65.000€</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2 locali 50 m2 senza ascensore</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Bilocale a Garibaldi - Zola, Livorno</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/26731794/</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>69.000€</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2 locali 51 m2 4º piano con ascensore</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Bilocale in piazza della Repubblica, 64, Centro Storico, Livorno</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/27474020/</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>69.000€</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2 locali 55 m2 1º piano con ascensore</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Bilocale in piazza della Repubblica, 74, Centro Storico, Livorno</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/27498589/</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>69.000€</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2 locali 55 m2 1º piano senza ascensore</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Bilocale in via dei Fulgidi, 14, Centro Storico, Livorno</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/27417287/</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>120.000€</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2 locali 55 m2 4º piano con ascensore</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Bilocale a Centro Storico, Livorno</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/26803263/</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>80.000€</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2 locali 55 m2 2º piano senza ascensore</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Bilocale in via Cosimo del Fante, Centro Storico, Livorno</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/26031248/</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>125.000€</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2 locali 55 m2 1º piano con ascensore</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Trilocale a Cisternone - Cavour, Livorno</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/23930343/</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>105.000€</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3 locali 55 m2 Piano terra senza ascensore</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Trilocale a Centro Storico, Livorno</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/27102748/</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>77.000€</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>3 locali 55 m2 4º piano senza ascensore</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Bilocale a Centro Storico, Livorno</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/24179484/</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>110.000€</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2 locali 55 m2 5º piano con ascensore</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Trilocale a Centro Storico, Livorno</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/20958924/</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>104.000€</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>3 locali 55 m2 5º piano con ascensore</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Trilocale a Centro Storico, Livorno</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/21680148/</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>75.000€</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>3 locali 55 m2 senza ascensore</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Bilocale a Cisternone - Cavour, Livorno</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/14724377/</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>85.000€</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2 locali 55 m2 2º piano senza ascensore</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Bilocale in via Giuseppe Verdi, Porta a Mare - Cappuccini, Livorno</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/27461186/</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>92.000€</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2 locali 56 m2 3º piano senza ascensore</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Bilocale in piazza Felice Cavallotti, Centro Storico, Livorno</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/25628416/</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>110.000€</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2 locali 57 m2 1º piano senza ascensore</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/file.xlsx
+++ b/file.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,9 +455,6 @@
       <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,30 +469,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>€ 125.000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
@@ -514,30 +506,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>€ 125.000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
@@ -556,30 +543,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>€ 65.000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -598,30 +580,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>€ 63.000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -640,30 +617,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>€ 70.000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -682,30 +654,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>€ 69.000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>55</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -724,30 +691,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>€ 120.000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>55</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -766,30 +728,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>€ 128.000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>55</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -808,30 +765,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>€ 93.000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>55</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -850,30 +802,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>€ 110.000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>55</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -892,30 +839,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>€ 125.000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>55</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
         <is>
           <t>7</t>
         </is>
@@ -934,30 +876,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>€ 90.000</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>55</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -976,30 +913,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>€ 110.000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>55</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1018,30 +950,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>€ 95.000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>58</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1060,30 +987,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>€ 118.000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1102,30 +1024,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>€ 90.000</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1144,30 +1061,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>€ 105.000</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1186,30 +1098,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>€ 138.000</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>65</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1228,30 +1135,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>€ 95.000</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>65</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1270,30 +1172,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>€ 105.000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>65</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1312,30 +1209,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>€ 120.000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>65</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -1354,30 +1246,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>€ 105.000</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>67</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1396,30 +1283,25 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>€ 105.000</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>67</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1438,30 +1320,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>€ 85.000</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>70</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1480,30 +1357,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>€ 130.000</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>70</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1522,30 +1394,25 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>€ 155.000</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>70</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -1564,30 +1431,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>€ 200.000</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>80</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1606,30 +1468,25 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>€ 250.000</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>92</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1648,30 +1505,25 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>€ 259.000</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1690,30 +1542,25 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>€ 259.000</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>110</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1732,30 +1579,25 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>€ 210.000</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>140</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1774,30 +1616,25 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>€ 350.000</t>
+          <t>5+</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5+</t>
+          <t>150</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -1816,30 +1653,25 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>€ 330.000</t>
+          <t>5+</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5+</t>
+          <t>160</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -1858,30 +1690,25 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>€ 350.000</t>
+          <t>5+</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5+</t>
+          <t>165</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -1900,30 +1727,25 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>€ 350.000</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>170</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -1942,30 +1764,25 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>€ 230.000</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>170</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1984,30 +1801,25 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>€ 350.000</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>170</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -2026,30 +1838,25 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>€ 395.000</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>217</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2068,30 +1875,25 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>€ 400.000</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>230</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -2110,30 +1912,25 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>€ 450.000</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>280</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2152,30 +1949,25 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>€ 217.000</t>
+          <t>5+</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5+</t>
+          <t>290</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -2194,30 +1986,25 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>€ 600.000</t>
+          <t>5+</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>5+</t>
+          <t>350</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2236,30 +2023,25 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>€ 65.000</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -2278,30 +2060,25 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>€ 65.000</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -2320,30 +2097,25 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>€ 70.000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -2362,30 +2134,25 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>€ 60.000</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -2404,30 +2171,25 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>€ 74.000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -2446,30 +2208,25 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>€ 115.000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2488,30 +2245,25 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>€ 104.000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>57</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
         <is>
           <t>T</t>
         </is>
@@ -2530,30 +2282,25 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>€ 110.000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>57</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2568,30 +2315,25 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>€ 104.000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>57</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -2610,30 +2352,25 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>€ 104.000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>57</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
         <is>
           <t>T</t>
         </is>
@@ -2642,124 +2379,109 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Trilocale buono stato, secondo piano, Cisternone, Livorno</t>
+          <t>Bilocale via Fagiuoli, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/101984074/</t>
+          <t>https://www.immobiliare.it/annunci/104826479/</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>€ 75.000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>58</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Trilocale via Maggi, Cisternone, Livorno</t>
+          <t>Trilocale buono stato, secondo piano, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/104577005/</t>
+          <t>https://www.immobiliare.it/annunci/101984074/</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>€ 105.000</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>58</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>R</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Trilocale via Fiorenza, Cisternone, Livorno</t>
+          <t>Trilocale via Maggi, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/104676327/</t>
+          <t>https://www.immobiliare.it/annunci/104577005/</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>€ 105.000</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -2768,40 +2490,35 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Trilocale via Fagiuoli 2, Cisternone, Livorno</t>
+          <t>Trilocale via Fiorenza, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/102455786/</t>
+          <t>https://www.immobiliare.it/annunci/104676327/</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>€ 105.000</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -2810,82 +2527,72 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Trilocale via Maggi, Cisternone, Livorno</t>
+          <t>Trilocale via Fagiuoli 2, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/102777498/</t>
+          <t>https://www.immobiliare.it/annunci/102455786/</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>€ 90.000</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>63</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Trilocale ottimo stato, terzo piano, Cisternone, Livorno</t>
+          <t>Trilocale via Maggi, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/91938336/</t>
+          <t>https://www.immobiliare.it/annunci/102777498/</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>€ 129.000</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>65</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -2894,208 +2601,183 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Quadrilocale via Maggi 88C, Cisternone, Livorno</t>
+          <t>Trilocale ottimo stato, terzo piano, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/101512983/</t>
+          <t>https://www.immobiliare.it/annunci/91938336/</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>€ 55.000</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>65</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Trilocale Scali degli Olandesi 56, Via Grande - Piazza della Repubblica, Livorno</t>
+          <t>Quadrilocale via Maggi 88C, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/95286216/</t>
+          <t>https://www.immobiliare.it/annunci/101512983/</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>€ 118.000</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>65</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Bilocale via Fagiuoli, Cisternone, Livorno</t>
+          <t>Trilocale Scali degli Olandesi 56, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/104101885/</t>
+          <t>https://www.immobiliare.it/annunci/95286216/</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>€ 105.000</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>66</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>R</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Trilocale buono stato, Cisternone, Livorno</t>
+          <t>Bilocale via Fagiuoli, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/103715174/</t>
+          <t>https://www.immobiliare.it/annunci/104101885/</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>€ 90.000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>70</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Trilocale da ristrutturare, terzo piano, Cisternone, Livorno</t>
+          <t>Trilocale buono stato, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/95194334/</t>
+          <t>https://www.immobiliare.it/annunci/103715174/</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>€ 90.000</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>70</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -3104,40 +2786,35 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Quadrilocale via della Rondinella 14, Cisternone, Livorno</t>
+          <t>Trilocale da ristrutturare, terzo piano, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/102205288/</t>
+          <t>https://www.immobiliare.it/annunci/95194334/</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>€ 145.000</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>70</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -3146,124 +2823,109 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Trilocale via Maggi, Cisternone, Livorno</t>
+          <t>Quadrilocale via della Rondinella 14, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/104754215/</t>
+          <t>https://www.immobiliare.it/annunci/102205288/</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>€ 130.000</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Quadrilocale via Bernardina, Cisternone, Livorno</t>
+          <t>Trilocale via Maggi, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/102192930/</t>
+          <t>https://www.immobiliare.it/annunci/104754215/</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>€ 145.000</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>80</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Appartamento Area Residenziale centro, Cisternone, Livorno</t>
+          <t>Quadrilocale via Bernardina, Cisternone, Livorno</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/92057456/</t>
+          <t>https://www.immobiliare.it/annunci/102192930/</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>€ 109.000</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>5+</t>
+          <t>80</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -3272,246 +2934,216 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Quadrilocale via della maddalena , 5, Cavour - San Carlo, Livorno</t>
+          <t>Trilocale borgo cappuccini, 50, Porta a Mare - Mazzini, Livorno</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/94926028/</t>
+          <t>https://www.immobiliare.it/annunci/98703630/</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>€ 135.000</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Quadrilocale via degli Apostoli, Cavour - San Carlo, Livorno</t>
+          <t>Quadrilocale via della maddalena , 5, Cavour - San Carlo, Livorno</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/100530508/</t>
+          <t>https://www.immobiliare.it/annunci/94926028/</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>€ 230.000</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Quadrilocale via della Vecchia Casina, Cavour - San Carlo, Livorno</t>
+          <t>Quadrilocale via degli Apostoli, Cavour - San Carlo, Livorno</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/103609528/</t>
+          <t>https://www.immobiliare.it/annunci/100530508/</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>€ 115.000</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Appartamento via degli Apostoli, Cavour - San Carlo, Livorno</t>
+          <t>Quadrilocale via della Vecchia Casina, Cavour - San Carlo, Livorno</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/102011422/</t>
+          <t>https://www.immobiliare.it/annunci/103609528/</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>€ 145.000</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Trilocale via degli Apostoli, Cavour - San Carlo, Livorno</t>
+          <t>Appartamento via degli Apostoli, Cavour - San Carlo, Livorno</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/101473923/</t>
+          <t>https://www.immobiliare.it/annunci/102011422/</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>€ 215.000</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>104</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Quadrilocale via Indipendenza, Cavour - San Carlo, Livorno</t>
+          <t>Trilocale via degli Apostoli, Cavour - San Carlo, Livorno</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/100456088/</t>
+          <t>https://www.immobiliare.it/annunci/101473923/</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>€ 215.000</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>110</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -3520,208 +3152,183 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Appartamento da ristrutturare, terzo piano, Porta a Mare - Mazzini, Livorno</t>
+          <t>Quadrilocale via Indipendenza, Cavour - San Carlo, Livorno</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/102482092/</t>
+          <t>https://www.immobiliare.it/annunci/100456088/</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>€ 148.000</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>110</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Quadrilocale ottimo stato, Cavour - San Carlo, Livorno</t>
+          <t>Appartamento da ristrutturare, terzo piano, Porta a Mare - Mazzini, Livorno</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/100688821/</t>
+          <t>https://www.immobiliare.it/annunci/102482092/</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>€ 215.000</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>110</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Appartamento piazza Giuseppe Mazzini, Porta a Mare - Mazzini, Livorno</t>
+          <t>Quadrilocale ottimo stato, Cavour - San Carlo, Livorno</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/97313264/</t>
+          <t>https://www.immobiliare.it/annunci/100688821/</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>€ 150.000</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>110</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Appartamento ottimo stato, Cavour - San Carlo, Livorno</t>
+          <t>Appartamento piazza Giuseppe Mazzini, Porta a Mare - Mazzini, Livorno</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/103162092/</t>
+          <t>https://www.immobiliare.it/annunci/97313264/</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>€ 199.000</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>112</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Appartamento da ristrutturare, primo piano, Via Grande - Piazza della Repubblica, Livorno</t>
+          <t>Appartamento ottimo stato, Cavour - San Carlo, Livorno</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/102578632/</t>
+          <t>https://www.immobiliare.it/annunci/103162092/</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>€ 160.000</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>5+</t>
+          <t>120</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3730,82 +3337,72 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Quadrilocale piazza Giuseppe Mazzini 13, Porta a Mare - Mazzini, Livorno</t>
+          <t>Appartamento da ristrutturare, primo piano, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/99628044/</t>
+          <t>https://www.immobiliare.it/annunci/102578632/</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>€ 185.000</t>
+          <t>5+</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>130</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Appartamento piazza Daniele Manin 15, Cavour - San Carlo, Livorno</t>
+          <t>Quadrilocale piazza Giuseppe Mazzini 13, Porta a Mare - Mazzini, Livorno</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/68325253/</t>
+          <t>https://www.immobiliare.it/annunci/99628044/</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>€ 310.000</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>5+</t>
+          <t>142</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -3814,166 +3411,146 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Appartamento via dell'Indipendenza 20, Cavour - San Carlo, Livorno</t>
+          <t>Appartamento piazza Daniele Manin 15, Cavour - San Carlo, Livorno</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/83405407/</t>
+          <t>https://www.immobiliare.it/annunci/68325253/</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>€ 385.000</t>
+          <t>5+</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>156</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>59</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Appartamento Scali D'azeglio, Via Grande - Piazza della Repubblica, Livorno</t>
+          <t>Appartamento via dell'Indipendenza 20, Cavour - San Carlo, Livorno</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/100470066/</t>
+          <t>https://www.immobiliare.it/annunci/83405407/</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>€ 400.000</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>5+</t>
+          <t>210</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>R</t>
+          <t>59</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Appartamento ottimo stato, Cavour - San Carlo, Livorno</t>
+          <t>Appartamento Scali D'azeglio, Via Grande - Piazza della Repubblica, Livorno</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/104035903/</t>
+          <t>https://www.immobiliare.it/annunci/100470066/</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>€ 400.000</t>
+          <t>5+</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>220</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>R</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Appartamento ottimo stato, secondo piano, Cavour - San Carlo, Livorno</t>
+          <t>Appartamento ottimo stato, Cavour - San Carlo, Livorno</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://www.immobiliare.it/annunci/97628776/</t>
+          <t>https://www.immobiliare.it/annunci/104035903/</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>€ 400.000</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>230</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>m²</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>m²</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -3982,210 +3559,214 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Monolocale a Cisternone - Cavour, Livorno</t>
+          <t>Appartamento ottimo stato, secondo piano, Cavour - San Carlo, Livorno</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/25775077/</t>
+          <t>https://www.immobiliare.it/annunci/97628776/</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>65.000€</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1 locale 35 m2 4º piano senza ascensore</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Bilocale a Centro Storico, Livorno</t>
+          <t>Monolocale a Cisternone - Cavour, Livorno</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/24985298/</t>
+          <t>https://www.idealista.it/immobile/25775077/</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>125.000€</t>
+          <t>65.000€</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2 locali 40 m2 7º piano con ascensore</t>
+          <t>1 locale 35 m2 4º piano senza ascensore</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Bilocale a Cisternone - Cavour, Livorno</t>
+          <t>Bilocale a Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/22879344/</t>
+          <t>https://www.idealista.it/immobile/24985298/</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>49.000€</t>
+          <t>125.000€</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2 locali 40 m2 6º piano con ascensore</t>
+          <t>2 locali 40 m2 7º piano con ascensore</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Bilocale in via Grande, Centro Storico, Livorno</t>
+          <t>Bilocale a Cisternone - Cavour, Livorno</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/26297816/</t>
+          <t>https://www.idealista.it/immobile/22879344/</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>125.000€</t>
+          <t>49.000€</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2 locali 40 m2 7º piano senza ascensore</t>
+          <t>2 locali 40 m2 6º piano con ascensore</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Monolocale in via Santa Giulia, 2, Centro Storico, Livorno</t>
+          <t>Bilocale in via Grande, Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/22771541/</t>
+          <t>https://www.idealista.it/immobile/26297816/</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>65.000€</t>
+          <t>125.000€</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1 locale 44 m2 1º piano con ascensore</t>
+          <t>2 locali 40 m2 7º piano senza ascensore</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Bilocale in via Cairoli, 215, Centro Storico, Livorno</t>
+          <t>Monolocale in via Santa Giulia, 2, Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/25322533/</t>
+          <t>https://www.idealista.it/immobile/22771541/</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>125.000€</t>
+          <t>65.000€</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2 locali 45 m2 7º piano con ascensore</t>
+          <t>1 locale 44 m2 1º piano con ascensore</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Monolocale a San Marco - Pontino, Livorno</t>
+          <t>Bilocale in via Cairoli, 215, Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/27550156/</t>
+          <t>https://www.idealista.it/immobile/25322533/</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>110.000€</t>
+          <t>125.000€</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1 locale 45 m2 3º piano senza ascensore</t>
+          <t>2 locali 45 m2 7º piano con ascensore</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Bilocale a Centro Storico, Livorno</t>
+          <t>Monolocale a San Marco - Pontino, Livorno</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/27528910/</t>
+          <t>https://www.idealista.it/immobile/27550156/</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>67.000€</t>
+          <t>110.000€</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2 locali 45 m2 3º piano con ascensore</t>
+          <t>1 locale 45 m2 3º piano senza ascensore</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4195,153 +3776,147 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/26712899/</t>
+          <t>https://www.idealista.it/immobile/27528910/</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>75.000€</t>
+          <t>67.000€</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2 locali 45 m2 4º piano con ascensore</t>
+          <t>2 locali 45 m2 3º piano con ascensore</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Bilocale in via dei Mulini, Cisternone - Cavour, Livorno</t>
+          <t>Bilocale a Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/26470091/</t>
+          <t>https://www.idealista.it/immobile/26712899/</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>74.000€</t>
+          <t>75.000€</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2 locali 48 m2 2º piano con ascensore</t>
+          <t>2 locali 45 m2 4º piano con ascensore</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Bilocale in via Grande, Centro Storico, Livorno</t>
+          <t>Bilocale in via dei Mulini, Cisternone - Cavour, Livorno</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/26792693/</t>
+          <t>https://www.idealista.it/immobile/26470091/</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>110.000€</t>
+          <t>74.000€</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2 locali 48 m2 6º piano con ascensore</t>
+          <t>2 locali 48 m2 2º piano con ascensore</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Bilocale a Centro Storico, Livorno</t>
+          <t>Bilocale in via Grande, Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/25393367/</t>
+          <t>https://www.idealista.it/immobile/26792693/</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>80.000€</t>
+          <t>110.000€</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2 locali 50 m2 Piano rialzato con ascensore</t>
+          <t>2 locali 48 m2 6º piano con ascensore</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Bilocale in Centro, Centro Storico, Livorno</t>
+          <t>Bilocale a Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/24759325/</t>
+          <t>https://www.idealista.it/immobile/25393367/</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>125.000€</t>
+          <t>80.000€</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2 locali 50 m2 7º piano con ascensore</t>
+          <t>2 locali 50 m2 Piano rialzato con ascensore</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Bilocale a Centro Storico, Livorno</t>
+          <t>Bilocale in Centro, Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/27236632/</t>
+          <t>https://www.idealista.it/immobile/24759325/</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>63.000€</t>
+          <t>125.000€</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2 locali 50 m2 4º piano senza ascensore</t>
+          <t>2 locali 50 m2 7º piano con ascensore</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4351,23 +3926,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/20982948/</t>
+          <t>https://www.idealista.it/immobile/27236632/</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>90.000€</t>
+          <t>63.000€</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2 locali 50 m2 senza ascensore</t>
+          <t>2 locali 50 m2 4º piano senza ascensore</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4377,12 +3951,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/25480542/</t>
+          <t>https://www.idealista.it/immobile/20982948/</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>65.000€</t>
+          <t>90.000€</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4393,43 +3967,41 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Bilocale a Garibaldi - Zola, Livorno</t>
+          <t>Bilocale a Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/26731794/</t>
+          <t>https://www.idealista.it/immobile/25480542/</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>69.000€</t>
+          <t>65.000€</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2 locali 51 m2 4º piano con ascensore</t>
+          <t>2 locali 50 m2 senza ascensore</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Bilocale in piazza della Repubblica, 64, Centro Storico, Livorno</t>
+          <t>Bilocale a Garibaldi - Zola, Livorno</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/27474020/</t>
+          <t>https://www.idealista.it/immobile/26731794/</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4439,23 +4011,22 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2 locali 55 m2 1º piano con ascensore</t>
+          <t>2 locali 51 m2 4º piano con ascensore</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Bilocale in piazza della Repubblica, 74, Centro Storico, Livorno</t>
+          <t>Bilocale in piazza della Repubblica, 64, Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/27498589/</t>
+          <t>https://www.idealista.it/immobile/27474020/</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4465,195 +4036,187 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2 locali 55 m2 1º piano senza ascensore</t>
+          <t>2 locali 55 m2 1º piano con ascensore</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Bilocale in via dei Fulgidi, 14, Centro Storico, Livorno</t>
+          <t>Bilocale in piazza della Repubblica, 74, Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/27417287/</t>
+          <t>https://www.idealista.it/immobile/27498589/</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>120.000€</t>
+          <t>69.000€</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2 locali 55 m2 4º piano con ascensore</t>
+          <t>2 locali 55 m2 1º piano senza ascensore</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Bilocale a Centro Storico, Livorno</t>
+          <t>Bilocale in via dei Fulgidi, 14, Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/26803263/</t>
+          <t>https://www.idealista.it/immobile/27417287/</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>80.000€</t>
+          <t>120.000€</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2 locali 55 m2 2º piano senza ascensore</t>
+          <t>2 locali 55 m2 4º piano con ascensore</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Bilocale in via Cosimo del Fante, Centro Storico, Livorno</t>
+          <t>Bilocale a Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/26031248/</t>
+          <t>https://www.idealista.it/immobile/26803263/</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>125.000€</t>
+          <t>80.000€</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2 locali 55 m2 1º piano con ascensore</t>
+          <t>2 locali 55 m2 2º piano senza ascensore</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Trilocale a Cisternone - Cavour, Livorno</t>
+          <t>Bilocale in via Cosimo del Fante, Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/23930343/</t>
+          <t>https://www.idealista.it/immobile/26031248/</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>105.000€</t>
+          <t>125.000€</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>3 locali 55 m2 Piano terra senza ascensore</t>
+          <t>2 locali 55 m2 1º piano con ascensore</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Trilocale a Centro Storico, Livorno</t>
+          <t>Trilocale a Cisternone - Cavour, Livorno</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/27102748/</t>
+          <t>https://www.idealista.it/immobile/23930343/</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>77.000€</t>
+          <t>105.000€</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>3 locali 55 m2 4º piano senza ascensore</t>
+          <t>3 locali 55 m2 Piano terra senza ascensore</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Bilocale a Centro Storico, Livorno</t>
+          <t>Trilocale a Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/24179484/</t>
+          <t>https://www.idealista.it/immobile/27102748/</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>110.000€</t>
+          <t>77.000€</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2 locali 55 m2 5º piano con ascensore</t>
+          <t>3 locali 55 m2 4º piano senza ascensore</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Trilocale a Centro Storico, Livorno</t>
+          <t>Bilocale a Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/20958924/</t>
+          <t>https://www.idealista.it/immobile/24179484/</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>104.000€</t>
+          <t>110.000€</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>3 locali 55 m2 5º piano con ascensore</t>
+          <t>2 locali 55 m2 5º piano con ascensore</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4663,85 +4226,82 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/21680148/</t>
+          <t>https://www.idealista.it/immobile/20958924/</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>75.000€</t>
+          <t>104.000€</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>3 locali 55 m2 senza ascensore</t>
+          <t>3 locali 55 m2 5º piano con ascensore</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Bilocale a Cisternone - Cavour, Livorno</t>
+          <t>Trilocale a Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/14724377/</t>
+          <t>https://www.idealista.it/immobile/21680148/</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>85.000€</t>
+          <t>75.000€</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2 locali 55 m2 2º piano senza ascensore</t>
+          <t>3 locali 55 m2 senza ascensore</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Bilocale in via Giuseppe Verdi, Porta a Mare - Cappuccini, Livorno</t>
+          <t>Bilocale a Cisternone - Cavour, Livorno</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/27461186/</t>
+          <t>https://www.idealista.it/immobile/14724377/</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>92.000€</t>
+          <t>85.000€</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2 locali 56 m2 3º piano senza ascensore</t>
+          <t>2 locali 55 m2 2º piano senza ascensore</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Bilocale in piazza Felice Cavallotti, Centro Storico, Livorno</t>
+          <t>Bilocale a Centro Storico, Livorno</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://www.idealista.it/immobile/25628416/</t>
+          <t>https://www.idealista.it/immobile/27846031/</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4751,13 +4311,1037 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2 locali 57 m2 1º piano senza ascensore</t>
+          <t>2 locali 55 m2 3º piano con ascensore</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Bilocale in via Giuseppe Verdi, Porta a Mare - Cappuccini, Livorno</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://www.idealista.it/immobile/27461186/</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>92.000€</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2 locali 56 m2 3º piano senza ascensore</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Monolocale</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46414069/</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Tua da € 230/mese</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>35 mq</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Monolocale in Via Santa Giulia 2</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/42583420/</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Tua da € 230/mese</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>44 mq</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Bilocale in Via Cairoli 215</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/44914519/</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Tua da € 442/mese</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>45 mq</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Bilocale</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46925864/</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Tua da € 237/mese</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>45 mq</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Bilocale</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/45948333/</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Tua da € 283/mese</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>50 mq</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Bilocale</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/45196936/</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Tua da € 230/mese</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>50 mq</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Bilocale</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46675362/</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Tua da € 223/mese</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>50 mq</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Bilocale</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/42095803/</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Tua da € 318/mese</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>50 mq</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Bilocale in Piazza della Repubblica 64</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46874514/</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>€ 69.000</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Tua da € 244/mese</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Trilocale</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46556658/</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Tua da € 272/mese</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>55 mq</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Bilocale in Via Cosimo del Fante</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/45557819/</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Tua da € 442/mese</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>55 mq</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Bilocale in Via dei Fulgidi 14</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46821605/</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Tua da € 424/mese</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>55 mq</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Bilocale</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46274068/</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Tua da € 283/mese</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>55 mq</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Bilocale in Via della Coroncina</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/45691405/</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Tua da € 336/mese</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>58 mq</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Trilocale in Piazza Grande 12</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/43553648/</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Tua da € 389/mese</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>60 mq</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Trilocale</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46114272/</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Tua da € 389/mese</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>60 mq</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Quadrilocale</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/44474351/</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Tua da € 548/mese</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>60 mq</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Villetta a schiera</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46576000/</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Tua da € 350/mese</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>60 mq</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Bilocale</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46114385/</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Tua da € 389/mese</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>60 mq</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Bilocale in Via Grande</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/44209840/</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Tua da € 417/mese</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>60 mq</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Bilocale</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46870162/</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Tua da € 399/mese</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>60 mq</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Trilocale</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46414186/</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Tua da € 421/mese</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>60 mq</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Trilocale</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/42095277/</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Tua da € 548/mese</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>70 mq</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Bilocale in Via Alessandro Volta</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46491360/</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Tua da € 576/mese</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>70 mq</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Trilocale</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46391889/</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Tua da € 459/mese</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>80 mq</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Trilocale</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46288848/</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Tua da € 491/mese</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>84 mq</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Appartamento</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46114652/</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Tua da € 530/mese</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>107 mq</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Quadrilocale in Via del Bastione</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/47040241/</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Tua da € 915/mese</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>110 mq</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Trilocale</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46300280/</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Tua da € 654/mese</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>110 mq</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Appartamento</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46945447/</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Tua da € 760/mese</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>113 mq</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Appartamento in Via Enrico Cialdini 33</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46607674/</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Tua da € 919/mese</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>135 mq</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Appartamento</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/45423609/</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Tua da € 742/mese</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>140 mq</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Appartamento</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46597059/</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Tua da € 502/mese</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>144 mq</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Attico/Mansarda in Scali d'Azeglio</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46357903/</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Tua da € 1237/mese</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>165 mq</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Appartamento in Scali d'Azeglio 4</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/42322150/</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Tua da € 1237/mese</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>170 mq</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Appartamento in Via Scali d'Azeglio</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46379365/</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Tua da € 1166/mese</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>170 mq</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Appartamento in Via Francesco Crispi</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/47094551/</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Tua da € 813/mese</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>170 mq</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Appartamento in Scali d'Azeglio</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/45847691/</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Tua da € 1414/mese</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>220 mq</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Appartamento in Via Cairoli</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/44527549/</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Tua da € 1166/mese</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>262 mq</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Appartamento in Largo Fratelli Rosselli</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://www.casa.it/immobili/46792442/</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Tua da € 1590/mese</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>280 mq</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
